--- a/Code/Results/Cases/Case_5_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_104/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.63020791406874</v>
+        <v>10.06655267360777</v>
       </c>
       <c r="C2">
-        <v>8.260820657988074</v>
+        <v>5.270437362646166</v>
       </c>
       <c r="D2">
-        <v>7.794185893496475</v>
+        <v>9.193505539852069</v>
       </c>
       <c r="E2">
-        <v>11.15304156053036</v>
+        <v>13.69638693630328</v>
       </c>
       <c r="F2">
-        <v>22.87713876475287</v>
+        <v>33.17022212974837</v>
       </c>
       <c r="I2">
-        <v>14.35038363722155</v>
+        <v>22.91223486194552</v>
       </c>
       <c r="J2">
-        <v>6.384337137485955</v>
+        <v>9.952164006458331</v>
       </c>
       <c r="K2">
-        <v>12.35640382866571</v>
+        <v>10.24193201029324</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.12630923223817</v>
+        <v>25.08334463714854</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76083470861924</v>
+        <v>9.754891060528685</v>
       </c>
       <c r="C3">
-        <v>7.748526962107928</v>
+        <v>5.048455835676474</v>
       </c>
       <c r="D3">
-        <v>7.395809005983465</v>
+        <v>9.122094076288494</v>
       </c>
       <c r="E3">
-        <v>10.65990308111773</v>
+        <v>13.62785279992256</v>
       </c>
       <c r="F3">
-        <v>22.63661742360698</v>
+        <v>33.24478385495912</v>
       </c>
       <c r="I3">
-        <v>14.57081975649545</v>
+        <v>23.01950234982141</v>
       </c>
       <c r="J3">
-        <v>6.280198825206009</v>
+        <v>9.959068111991911</v>
       </c>
       <c r="K3">
-        <v>11.62955375887469</v>
+        <v>10.02936680492341</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.19963507557109</v>
+        <v>25.17842383260048</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.19628080059216</v>
+        <v>9.559559341184409</v>
       </c>
       <c r="C4">
-        <v>7.41653333583311</v>
+        <v>4.907451072836533</v>
       </c>
       <c r="D4">
-        <v>7.142909936230913</v>
+        <v>9.079538283194617</v>
       </c>
       <c r="E4">
-        <v>10.35132120189576</v>
+        <v>13.5884402633765</v>
       </c>
       <c r="F4">
-        <v>22.50881389786875</v>
+        <v>33.29856291471717</v>
       </c>
       <c r="I4">
-        <v>14.71692394940401</v>
+        <v>23.08975856074193</v>
       </c>
       <c r="J4">
-        <v>6.218889491675298</v>
+        <v>9.964876781477637</v>
       </c>
       <c r="K4">
-        <v>11.15943871932122</v>
+        <v>9.897778754030858</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.25910831047845</v>
+        <v>25.24209190594288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9584791294917</v>
+        <v>9.479081855602898</v>
       </c>
       <c r="C5">
-        <v>7.276865174430158</v>
+        <v>4.848885965622117</v>
       </c>
       <c r="D5">
-        <v>7.037887642048111</v>
+        <v>9.062536574309451</v>
       </c>
       <c r="E5">
-        <v>10.22429714362045</v>
+        <v>13.57306317562707</v>
       </c>
       <c r="F5">
-        <v>22.46163111860146</v>
+        <v>33.32248484553253</v>
       </c>
       <c r="I5">
-        <v>14.7790618436506</v>
+        <v>23.11949309941544</v>
       </c>
       <c r="J5">
-        <v>6.194580776716488</v>
+        <v>9.967638875806642</v>
       </c>
       <c r="K5">
-        <v>10.96191446528963</v>
+        <v>9.843956709547021</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.28682223007038</v>
+        <v>25.26936480419913</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.91852473529864</v>
+        <v>9.465669276293486</v>
       </c>
       <c r="C6">
-        <v>7.253409362838122</v>
+        <v>4.839097078100396</v>
       </c>
       <c r="D6">
-        <v>7.020334142350568</v>
+        <v>9.059734436339472</v>
       </c>
       <c r="E6">
-        <v>10.20313371115363</v>
+        <v>13.57055148619608</v>
       </c>
       <c r="F6">
-        <v>22.45408909107117</v>
+        <v>33.32657810903505</v>
       </c>
       <c r="I6">
-        <v>14.78953387251143</v>
+        <v>23.12449720394243</v>
       </c>
       <c r="J6">
-        <v>6.190585486493984</v>
+        <v>9.968121385427537</v>
       </c>
       <c r="K6">
-        <v>10.92875801491642</v>
+        <v>9.835009701338791</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.29162968723457</v>
+        <v>25.27397356552107</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.19310507250181</v>
+        <v>9.558477384161627</v>
       </c>
       <c r="C7">
-        <v>7.41466743198351</v>
+        <v>4.906665603393658</v>
       </c>
       <c r="D7">
-        <v>7.141501343693422</v>
+        <v>9.079307595065428</v>
       </c>
       <c r="E7">
-        <v>10.34961301298585</v>
+        <v>13.58823009723882</v>
       </c>
       <c r="F7">
-        <v>22.50815788440722</v>
+        <v>33.29887741635692</v>
       </c>
       <c r="I7">
-        <v>14.71775157113361</v>
+        <v>23.09015509908137</v>
       </c>
       <c r="J7">
-        <v>6.218558904688003</v>
+        <v>9.964912432268855</v>
       </c>
       <c r="K7">
-        <v>11.15679885509133</v>
+        <v>9.897053601115925</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.25946819062585</v>
+        <v>25.24245434534602</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.33682390944152</v>
+        <v>9.959985004558233</v>
       </c>
       <c r="C8">
-        <v>8.087804516310767</v>
+        <v>5.194919490563437</v>
       </c>
       <c r="D8">
-        <v>7.658613461807906</v>
+        <v>9.168624334730957</v>
       </c>
       <c r="E8">
-        <v>10.98431172163426</v>
+        <v>13.67221078280898</v>
       </c>
       <c r="F8">
-        <v>22.79002548335552</v>
+        <v>33.19426843697954</v>
       </c>
       <c r="I8">
-        <v>14.42409151495062</v>
+        <v>22.94830866967536</v>
       </c>
       <c r="J8">
-        <v>6.347892475529457</v>
+        <v>9.954219023890062</v>
       </c>
       <c r="K8">
-        <v>12.11075167157443</v>
+        <v>10.16890378237207</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.14849805003447</v>
+        <v>25.11502880654694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.33641194893648</v>
+        <v>10.71102946378267</v>
       </c>
       <c r="C9">
-        <v>9.269464872700052</v>
+        <v>5.719852817139502</v>
       </c>
       <c r="D9">
-        <v>8.602550823375278</v>
+        <v>9.353314830966914</v>
       </c>
       <c r="E9">
-        <v>12.17619213307982</v>
+        <v>13.85744888539987</v>
       </c>
       <c r="F9">
-        <v>23.50426036688658</v>
+        <v>33.05277596353501</v>
       </c>
       <c r="I9">
-        <v>13.93878492649927</v>
+        <v>22.70501925660661</v>
       </c>
       <c r="J9">
-        <v>6.621756223560532</v>
+        <v>9.945684373866975</v>
       </c>
       <c r="K9">
-        <v>13.79131182166501</v>
+        <v>10.69051175024294</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.0526622148972</v>
+        <v>24.90721715727793</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.65881478285513</v>
+        <v>11.23490512677161</v>
       </c>
       <c r="C10">
-        <v>10.05382076922302</v>
+        <v>6.07756605640959</v>
       </c>
       <c r="D10">
-        <v>9.24882618263678</v>
+        <v>9.493850490543336</v>
       </c>
       <c r="E10">
-        <v>13.01222409876545</v>
+        <v>14.00519182248776</v>
       </c>
       <c r="F10">
-        <v>24.13168644861092</v>
+        <v>32.98784597866965</v>
       </c>
       <c r="I10">
-        <v>13.64543995469702</v>
+        <v>22.54754697218051</v>
       </c>
       <c r="J10">
-        <v>6.834414229449694</v>
+        <v>9.946965325269291</v>
       </c>
       <c r="K10">
-        <v>14.90956659180229</v>
+        <v>11.06294533393328</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.06640078817437</v>
+        <v>24.78032356280931</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.22900950881303</v>
+        <v>11.46612981514405</v>
       </c>
       <c r="C11">
-        <v>10.39266679668943</v>
+        <v>6.233675111515219</v>
       </c>
       <c r="D11">
-        <v>9.53194130603244</v>
+        <v>9.558621904290131</v>
       </c>
       <c r="E11">
-        <v>13.38279727606631</v>
+        <v>14.0747297490087</v>
       </c>
       <c r="F11">
-        <v>24.4400704787858</v>
+        <v>32.96681784052314</v>
       </c>
       <c r="I11">
-        <v>13.52771219189661</v>
+        <v>22.48053195891911</v>
       </c>
       <c r="J11">
-        <v>6.933456289336901</v>
+        <v>9.949179269264368</v>
       </c>
       <c r="K11">
-        <v>15.39309663917363</v>
+        <v>11.22929621004412</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.09308234658178</v>
+        <v>24.72822453086912</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.44045761326376</v>
+        <v>11.55259445849662</v>
       </c>
       <c r="C12">
-        <v>10.51841889000823</v>
+        <v>6.291800860592578</v>
       </c>
       <c r="D12">
-        <v>9.637549001757943</v>
+        <v>9.583251850736781</v>
       </c>
       <c r="E12">
-        <v>13.52165198701265</v>
+        <v>14.10137870078047</v>
       </c>
       <c r="F12">
-        <v>24.56018846666349</v>
+        <v>32.9600805038408</v>
       </c>
       <c r="I12">
-        <v>13.48557757607393</v>
+        <v>22.45582003356614</v>
       </c>
       <c r="J12">
-        <v>6.971277009578746</v>
+        <v>9.950251258860835</v>
       </c>
       <c r="K12">
-        <v>15.57259439859504</v>
+        <v>11.29179090915407</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.10630226023157</v>
+        <v>24.70930729869442</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.39511672130406</v>
+        <v>11.53402257552914</v>
       </c>
       <c r="C13">
-        <v>10.49144947449888</v>
+        <v>6.279326985122465</v>
       </c>
       <c r="D13">
-        <v>9.614876218840154</v>
+        <v>9.577943091524199</v>
       </c>
       <c r="E13">
-        <v>13.49181363579126</v>
+        <v>14.09562559754219</v>
       </c>
       <c r="F13">
-        <v>24.53416985742416</v>
+        <v>32.96147697770416</v>
       </c>
       <c r="I13">
-        <v>13.49454007555227</v>
+        <v>22.46111258924821</v>
       </c>
       <c r="J13">
-        <v>6.963117835402461</v>
+        <v>9.950010012993703</v>
       </c>
       <c r="K13">
-        <v>15.53409635213967</v>
+        <v>11.27835460998384</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.1033136901923</v>
+        <v>24.71334532885996</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.2464948644926</v>
+        <v>11.47326566605273</v>
       </c>
       <c r="C14">
-        <v>10.40306369940566</v>
+        <v>6.238477176776936</v>
       </c>
       <c r="D14">
-        <v>9.540661994122939</v>
+        <v>9.560646278498442</v>
       </c>
       <c r="E14">
-        <v>13.39425081726285</v>
+        <v>14.07691593980308</v>
       </c>
       <c r="F14">
-        <v>24.44988553791397</v>
+        <v>32.96623898453711</v>
       </c>
       <c r="I14">
-        <v>13.52419559770535</v>
+        <v>22.47848555707318</v>
       </c>
       <c r="J14">
-        <v>6.936561581022346</v>
+        <v>9.949262786345065</v>
       </c>
       <c r="K14">
-        <v>15.40793616033393</v>
+        <v>11.23444799646949</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.09410648488276</v>
+        <v>24.72665191962974</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.15487849292364</v>
+        <v>11.43590557922003</v>
       </c>
       <c r="C15">
-        <v>10.34859196534969</v>
+        <v>6.213325619437475</v>
       </c>
       <c r="D15">
-        <v>9.494994104655889</v>
+        <v>9.550064268146604</v>
       </c>
       <c r="E15">
-        <v>13.33429705263946</v>
+        <v>14.06549638830644</v>
       </c>
       <c r="F15">
-        <v>24.39869486400978</v>
+        <v>32.96931550392777</v>
       </c>
       <c r="I15">
-        <v>13.54268485663721</v>
+        <v>22.48921365759124</v>
       </c>
       <c r="J15">
-        <v>6.920335775901668</v>
+        <v>9.948835481953559</v>
       </c>
       <c r="K15">
-        <v>15.33019053200948</v>
+        <v>11.20748734218701</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.08887790596309</v>
+        <v>24.7349083533901</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.62092316746193</v>
+        <v>11.21964473736879</v>
       </c>
       <c r="C16">
-        <v>10.03131669049245</v>
+        <v>6.067227445526163</v>
       </c>
       <c r="D16">
-        <v>9.230101573291231</v>
+        <v>9.489632868492672</v>
       </c>
       <c r="E16">
-        <v>12.98780364503464</v>
+        <v>14.00069265505503</v>
       </c>
       <c r="F16">
-        <v>24.11199830167484</v>
+        <v>32.98939162259283</v>
       </c>
       <c r="I16">
-        <v>13.65346555138071</v>
+        <v>22.55201959834794</v>
       </c>
       <c r="J16">
-        <v>6.827986584019502</v>
+        <v>9.94685338476539</v>
       </c>
       <c r="K16">
-        <v>14.87746139611988</v>
+        <v>11.05200714348507</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.06508345681918</v>
+        <v>24.78384178015045</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.28535008551706</v>
+        <v>11.08510351968687</v>
       </c>
       <c r="C17">
-        <v>9.832092205272122</v>
+        <v>5.975877426722914</v>
       </c>
       <c r="D17">
-        <v>9.064781985918019</v>
+        <v>9.452762420166353</v>
       </c>
       <c r="E17">
-        <v>12.7726888639277</v>
+        <v>13.96152121104678</v>
       </c>
       <c r="F17">
-        <v>23.94203012783907</v>
+        <v>33.00388861992084</v>
       </c>
       <c r="I17">
-        <v>13.72557870911385</v>
+        <v>22.59173288036356</v>
       </c>
       <c r="J17">
-        <v>6.771911762238051</v>
+        <v>9.946054591146424</v>
       </c>
       <c r="K17">
-        <v>14.59328850363804</v>
+        <v>10.95579664484868</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.05584618060744</v>
+        <v>24.81530354679371</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08938175112386</v>
+        <v>11.00705570513323</v>
       </c>
       <c r="C18">
-        <v>9.715811419306329</v>
+        <v>5.922714400962665</v>
       </c>
       <c r="D18">
-        <v>8.968672047770642</v>
+        <v>9.431635791944375</v>
       </c>
       <c r="E18">
-        <v>12.64804673594835</v>
+        <v>13.93921118410223</v>
       </c>
       <c r="F18">
-        <v>23.84642881958355</v>
+        <v>33.01302772246032</v>
       </c>
       <c r="I18">
-        <v>13.76852345292149</v>
+        <v>22.61500970308268</v>
       </c>
       <c r="J18">
-        <v>6.739876633444994</v>
+        <v>9.945748750179058</v>
       </c>
       <c r="K18">
-        <v>14.42746933248169</v>
+        <v>10.90017303047822</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.05244561331232</v>
+        <v>24.83392886955222</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.02252149026682</v>
+        <v>10.98051858394338</v>
       </c>
       <c r="C19">
-        <v>9.676149529972445</v>
+        <v>5.904608924609929</v>
       </c>
       <c r="D19">
-        <v>8.935956588660579</v>
+        <v>9.424497029601071</v>
       </c>
       <c r="E19">
-        <v>12.60569060329588</v>
+        <v>13.93169579080798</v>
       </c>
       <c r="F19">
-        <v>23.81442955794322</v>
+        <v>33.016259534318</v>
       </c>
       <c r="I19">
-        <v>13.78331037942074</v>
+        <v>22.62296548596953</v>
       </c>
       <c r="J19">
-        <v>6.72906795863896</v>
+        <v>9.945671606346028</v>
       </c>
       <c r="K19">
-        <v>14.37091834726437</v>
+        <v>10.88129253383465</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.05161727820184</v>
+        <v>24.84032591946281</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.32137803247341</v>
+        <v>11.09949488225769</v>
       </c>
       <c r="C20">
-        <v>9.853474978391482</v>
+        <v>5.98566634741668</v>
       </c>
       <c r="D20">
-        <v>9.082486668374331</v>
+        <v>9.456679167766675</v>
       </c>
       <c r="E20">
-        <v>12.79568335411807</v>
+        <v>13.96566840445366</v>
       </c>
       <c r="F20">
-        <v>23.9598996954729</v>
+        <v>33.00226249205728</v>
       </c>
       <c r="I20">
-        <v>13.71774899667666</v>
+        <v>22.58746032809999</v>
       </c>
       <c r="J20">
-        <v>6.777858615600597</v>
+        <v>9.946123733168115</v>
       </c>
       <c r="K20">
-        <v>14.62378443904128</v>
+        <v>10.96606843026929</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.05663028008736</v>
+        <v>24.81189958358447</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.29026975126897</v>
+        <v>11.49114172752391</v>
       </c>
       <c r="C21">
-        <v>10.42909407594559</v>
+        <v>6.250502880188065</v>
       </c>
       <c r="D21">
-        <v>9.562504229305805</v>
+        <v>9.565724140072435</v>
       </c>
       <c r="E21">
-        <v>13.42294785849103</v>
+        <v>14.08240298119593</v>
       </c>
       <c r="F21">
-        <v>24.47455098637529</v>
+        <v>32.96480699356675</v>
       </c>
       <c r="I21">
-        <v>13.51541709260475</v>
+        <v>22.47336463462058</v>
       </c>
       <c r="J21">
-        <v>6.944353347379304</v>
+        <v>9.949475932815268</v>
       </c>
       <c r="K21">
-        <v>15.44509014277081</v>
+        <v>11.24735840623863</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.09672487418779</v>
+        <v>24.72272140595794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.89744958294228</v>
+        <v>11.7406928870684</v>
       </c>
       <c r="C22">
-        <v>10.79037618817816</v>
+        <v>6.417808458406126</v>
       </c>
       <c r="D22">
-        <v>9.866876691730903</v>
+        <v>9.63757968888312</v>
       </c>
       <c r="E22">
-        <v>13.82429226761737</v>
+        <v>14.1605313580374</v>
       </c>
       <c r="F22">
-        <v>24.83038418925508</v>
+        <v>32.94747164076765</v>
       </c>
       <c r="I22">
-        <v>13.39753889136959</v>
+        <v>22.40267427271774</v>
       </c>
       <c r="J22">
-        <v>7.055000907631885</v>
+        <v>9.953027960627027</v>
       </c>
       <c r="K22">
-        <v>15.96086213355317</v>
+        <v>11.42826664389221</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.14117473083214</v>
+        <v>24.66916975431547</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.57575564985109</v>
+        <v>11.60811242429921</v>
       </c>
       <c r="C23">
-        <v>10.5989101846502</v>
+        <v>6.329054291989866</v>
       </c>
       <c r="D23">
-        <v>9.705292219581956</v>
+        <v>9.599181325311047</v>
       </c>
       <c r="E23">
-        <v>13.61089445348839</v>
+        <v>14.1186710468187</v>
       </c>
       <c r="F23">
-        <v>24.63867638931804</v>
+        <v>32.95606967884833</v>
       </c>
       <c r="I23">
-        <v>13.45907313873943</v>
+        <v>22.44004793243636</v>
       </c>
       <c r="J23">
-        <v>6.995783209684456</v>
+        <v>9.951007975181845</v>
       </c>
       <c r="K23">
-        <v>15.68749971114805</v>
+        <v>11.33199860085737</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.11572280794828</v>
+        <v>24.69731750783354</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.30509927852479</v>
+        <v>11.09299071637669</v>
       </c>
       <c r="C24">
-        <v>9.843813260328332</v>
+        <v>5.981242781484742</v>
       </c>
       <c r="D24">
-        <v>9.074485697282658</v>
+        <v>9.454908184606973</v>
       </c>
       <c r="E24">
-        <v>12.78529056004654</v>
+        <v>13.96379280231394</v>
       </c>
       <c r="F24">
-        <v>23.9518142770331</v>
+        <v>33.00299515837697</v>
       </c>
       <c r="I24">
-        <v>13.72128419523433</v>
+        <v>22.58939056247445</v>
       </c>
       <c r="J24">
-        <v>6.775169409596517</v>
+        <v>9.94609199617747</v>
       </c>
       <c r="K24">
-        <v>14.61000484141843</v>
+        <v>10.96142552013032</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.05626985278539</v>
+        <v>24.81343684114037</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.8213684658787</v>
+        <v>10.51237233999552</v>
       </c>
       <c r="C25">
-        <v>8.964571883155466</v>
+        <v>5.582541935349647</v>
       </c>
       <c r="D25">
-        <v>8.355223898373103</v>
+        <v>9.302428742950745</v>
       </c>
       <c r="E25">
-        <v>11.86026110581451</v>
+        <v>13.80522453907274</v>
       </c>
       <c r="F25">
-        <v>23.29326563832087</v>
+        <v>33.08421428527517</v>
       </c>
       <c r="I25">
-        <v>14.05960009894079</v>
+        <v>22.76710104908947</v>
       </c>
       <c r="J25">
-        <v>6.545592509267959</v>
+        <v>9.946664542727666</v>
       </c>
       <c r="K25">
-        <v>13.35712832635141</v>
+        <v>10.55103660575688</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.06453635800059</v>
+        <v>24.95891737582154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_104/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.06655267360777</v>
+        <v>13.6302079140688</v>
       </c>
       <c r="C2">
-        <v>5.270437362646166</v>
+        <v>8.260820657988042</v>
       </c>
       <c r="D2">
-        <v>9.193505539852069</v>
+        <v>7.794185893496437</v>
       </c>
       <c r="E2">
-        <v>13.69638693630328</v>
+        <v>11.15304156053037</v>
       </c>
       <c r="F2">
-        <v>33.17022212974837</v>
+        <v>22.87713876475281</v>
       </c>
       <c r="I2">
-        <v>22.91223486194552</v>
+        <v>14.35038363722159</v>
       </c>
       <c r="J2">
-        <v>9.952164006458331</v>
+        <v>6.384337137486031</v>
       </c>
       <c r="K2">
-        <v>10.24193201029324</v>
+        <v>12.35640382866572</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.08334463714854</v>
+        <v>16.12630923223821</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.754891060528685</v>
+        <v>12.76083470861907</v>
       </c>
       <c r="C3">
-        <v>5.048455835676474</v>
+        <v>7.748526962108039</v>
       </c>
       <c r="D3">
-        <v>9.122094076288494</v>
+        <v>7.39580900598344</v>
       </c>
       <c r="E3">
-        <v>13.62785279992256</v>
+        <v>10.65990308111772</v>
       </c>
       <c r="F3">
-        <v>33.24478385495912</v>
+        <v>22.63661742360724</v>
       </c>
       <c r="I3">
-        <v>23.01950234982141</v>
+        <v>14.57081975649573</v>
       </c>
       <c r="J3">
-        <v>9.959068111991911</v>
+        <v>6.280198825206003</v>
       </c>
       <c r="K3">
-        <v>10.02936680492341</v>
+        <v>11.62955375887459</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.17842383260048</v>
+        <v>16.19963507557135</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.559559341184409</v>
+        <v>12.19628080059215</v>
       </c>
       <c r="C4">
-        <v>4.907451072836533</v>
+        <v>7.41653333583315</v>
       </c>
       <c r="D4">
-        <v>9.079538283194617</v>
+        <v>7.142909936230899</v>
       </c>
       <c r="E4">
-        <v>13.5884402633765</v>
+        <v>10.35132120189574</v>
       </c>
       <c r="F4">
-        <v>33.29856291471717</v>
+        <v>22.50881389786862</v>
       </c>
       <c r="I4">
-        <v>23.08975856074193</v>
+        <v>14.71692394940396</v>
       </c>
       <c r="J4">
-        <v>9.964876781477637</v>
+        <v>6.218889491675304</v>
       </c>
       <c r="K4">
-        <v>9.897778754030858</v>
+        <v>11.15943871932127</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.24209190594288</v>
+        <v>16.25910831047838</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.479081855602898</v>
+        <v>11.95847912949168</v>
       </c>
       <c r="C5">
-        <v>4.848885965622117</v>
+        <v>7.276865174430141</v>
       </c>
       <c r="D5">
-        <v>9.062536574309451</v>
+        <v>7.037887642048068</v>
       </c>
       <c r="E5">
-        <v>13.57306317562707</v>
+        <v>10.2242971436204</v>
       </c>
       <c r="F5">
-        <v>33.32248484553253</v>
+        <v>22.46163111860133</v>
       </c>
       <c r="I5">
-        <v>23.11949309941544</v>
+        <v>14.77906184365052</v>
       </c>
       <c r="J5">
-        <v>9.967638875806642</v>
+        <v>6.194580776716471</v>
       </c>
       <c r="K5">
-        <v>9.843956709547021</v>
+        <v>10.96191446528963</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.26936480419913</v>
+        <v>16.28682223007029</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.465669276293486</v>
+        <v>11.91852473529852</v>
       </c>
       <c r="C6">
-        <v>4.839097078100396</v>
+        <v>7.253409362838235</v>
       </c>
       <c r="D6">
-        <v>9.059734436339472</v>
+        <v>7.020334142350581</v>
       </c>
       <c r="E6">
-        <v>13.57055148619608</v>
+        <v>10.20313371115357</v>
       </c>
       <c r="F6">
-        <v>33.32657810903505</v>
+        <v>22.45408909107114</v>
       </c>
       <c r="I6">
-        <v>23.12449720394243</v>
+        <v>14.78953387251143</v>
       </c>
       <c r="J6">
-        <v>9.968121385427537</v>
+        <v>6.190585486493842</v>
       </c>
       <c r="K6">
-        <v>9.835009701338791</v>
+        <v>10.92875801491637</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.27397356552107</v>
+        <v>16.29162968723446</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.558477384161627</v>
+        <v>12.19310507250183</v>
       </c>
       <c r="C7">
-        <v>4.906665603393658</v>
+        <v>7.414667431983565</v>
       </c>
       <c r="D7">
-        <v>9.079307595065428</v>
+        <v>7.141501343693396</v>
       </c>
       <c r="E7">
-        <v>13.58823009723882</v>
+        <v>10.34961301298585</v>
       </c>
       <c r="F7">
-        <v>33.29887741635692</v>
+        <v>22.50815788440719</v>
       </c>
       <c r="I7">
-        <v>23.09015509908137</v>
+        <v>14.71775157113362</v>
       </c>
       <c r="J7">
-        <v>9.964912432268855</v>
+        <v>6.218558904688022</v>
       </c>
       <c r="K7">
-        <v>9.897053601115925</v>
+        <v>11.15679885509135</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.24245434534602</v>
+        <v>16.25946819062582</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.959985004558233</v>
+        <v>13.33682390944143</v>
       </c>
       <c r="C8">
-        <v>5.194919490563437</v>
+        <v>8.087804516310786</v>
       </c>
       <c r="D8">
-        <v>9.168624334730957</v>
+        <v>7.658613461807849</v>
       </c>
       <c r="E8">
-        <v>13.67221078280898</v>
+        <v>10.98431172163423</v>
       </c>
       <c r="F8">
-        <v>33.19426843697954</v>
+        <v>22.79002548335554</v>
       </c>
       <c r="I8">
-        <v>22.94830866967536</v>
+        <v>14.42409151495072</v>
       </c>
       <c r="J8">
-        <v>9.954219023890062</v>
+        <v>6.3478924755295</v>
       </c>
       <c r="K8">
-        <v>10.16890378237207</v>
+        <v>12.11075167157433</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.11502880654694</v>
+        <v>16.14849805003459</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.71102946378267</v>
+        <v>15.33641194893654</v>
       </c>
       <c r="C9">
-        <v>5.719852817139502</v>
+        <v>9.26946487270002</v>
       </c>
       <c r="D9">
-        <v>9.353314830966914</v>
+        <v>8.602550823375259</v>
       </c>
       <c r="E9">
-        <v>13.85744888539987</v>
+        <v>12.17619213307978</v>
       </c>
       <c r="F9">
-        <v>33.05277596353501</v>
+        <v>23.50426036688654</v>
       </c>
       <c r="I9">
-        <v>22.70501925660661</v>
+        <v>13.93878492649927</v>
       </c>
       <c r="J9">
-        <v>9.945684373866975</v>
+        <v>6.621756223560508</v>
       </c>
       <c r="K9">
-        <v>10.69051175024294</v>
+        <v>13.79131182166503</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.90721715727793</v>
+        <v>16.0526622148972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.23490512677161</v>
+        <v>16.65881478285518</v>
       </c>
       <c r="C10">
-        <v>6.07756605640959</v>
+        <v>10.05382076922304</v>
       </c>
       <c r="D10">
-        <v>9.493850490543336</v>
+        <v>9.24882618263671</v>
       </c>
       <c r="E10">
-        <v>14.00519182248776</v>
+        <v>13.01222409876544</v>
       </c>
       <c r="F10">
-        <v>32.98784597866965</v>
+        <v>24.1316864486108</v>
       </c>
       <c r="I10">
-        <v>22.54754697218051</v>
+        <v>13.64543995469696</v>
       </c>
       <c r="J10">
-        <v>9.946965325269291</v>
+        <v>6.834414229449698</v>
       </c>
       <c r="K10">
-        <v>11.06294533393328</v>
+        <v>14.90956659180231</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.78032356280931</v>
+        <v>16.06640078817425</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.46612981514405</v>
+        <v>17.22900950881297</v>
       </c>
       <c r="C11">
-        <v>6.233675111515219</v>
+        <v>10.39266679668963</v>
       </c>
       <c r="D11">
-        <v>9.558621904290131</v>
+        <v>9.531941306032426</v>
       </c>
       <c r="E11">
-        <v>14.0747297490087</v>
+        <v>13.38279727606631</v>
       </c>
       <c r="F11">
-        <v>32.96681784052314</v>
+        <v>24.44007047878572</v>
       </c>
       <c r="I11">
-        <v>22.48053195891911</v>
+        <v>13.52771219189658</v>
       </c>
       <c r="J11">
-        <v>9.949179269264368</v>
+        <v>6.933456289336879</v>
       </c>
       <c r="K11">
-        <v>11.22929621004412</v>
+        <v>15.39309663917365</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.72822453086912</v>
+        <v>16.09308234658169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.55259445849662</v>
+        <v>17.44045761326373</v>
       </c>
       <c r="C12">
-        <v>6.291800860592578</v>
+        <v>10.51841889000826</v>
       </c>
       <c r="D12">
-        <v>9.583251850736781</v>
+        <v>9.637549001757924</v>
       </c>
       <c r="E12">
-        <v>14.10137870078047</v>
+        <v>13.52165198701265</v>
       </c>
       <c r="F12">
-        <v>32.9600805038408</v>
+        <v>24.56018846666353</v>
       </c>
       <c r="I12">
-        <v>22.45582003356614</v>
+        <v>13.48557757607393</v>
       </c>
       <c r="J12">
-        <v>9.950251258860835</v>
+        <v>6.971277009578733</v>
       </c>
       <c r="K12">
-        <v>11.29179090915407</v>
+        <v>15.57259439859506</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.70930729869442</v>
+        <v>16.10630226023157</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.53402257552914</v>
+        <v>17.39511672130405</v>
       </c>
       <c r="C13">
-        <v>6.279326985122465</v>
+        <v>10.4914494744989</v>
       </c>
       <c r="D13">
-        <v>9.577943091524199</v>
+        <v>9.614876218840172</v>
       </c>
       <c r="E13">
-        <v>14.09562559754219</v>
+        <v>13.49181363579125</v>
       </c>
       <c r="F13">
-        <v>32.96147697770416</v>
+        <v>24.53416985742419</v>
       </c>
       <c r="I13">
-        <v>22.46111258924821</v>
+        <v>13.4945400755523</v>
       </c>
       <c r="J13">
-        <v>9.950010012993703</v>
+        <v>6.963117835402441</v>
       </c>
       <c r="K13">
-        <v>11.27835460998384</v>
+        <v>15.53409635213967</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.71334532885996</v>
+        <v>16.10331369019233</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.47326566605273</v>
+        <v>17.24649486449261</v>
       </c>
       <c r="C14">
-        <v>6.238477176776936</v>
+        <v>10.40306369940576</v>
       </c>
       <c r="D14">
-        <v>9.560646278498442</v>
+        <v>9.540661994122928</v>
       </c>
       <c r="E14">
-        <v>14.07691593980308</v>
+        <v>13.39425081726282</v>
       </c>
       <c r="F14">
-        <v>32.96623898453711</v>
+        <v>24.44988553791404</v>
       </c>
       <c r="I14">
-        <v>22.47848555707318</v>
+        <v>13.52419559770539</v>
       </c>
       <c r="J14">
-        <v>9.949262786345065</v>
+        <v>6.936561581022365</v>
       </c>
       <c r="K14">
-        <v>11.23444799646949</v>
+        <v>15.40793616033399</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.72665191962974</v>
+        <v>16.09410648488275</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.43590557922003</v>
+        <v>17.15487849292359</v>
       </c>
       <c r="C15">
-        <v>6.213325619437475</v>
+        <v>10.34859196534989</v>
       </c>
       <c r="D15">
-        <v>9.550064268146604</v>
+        <v>9.494994104655827</v>
       </c>
       <c r="E15">
-        <v>14.06549638830644</v>
+        <v>13.33429705263945</v>
       </c>
       <c r="F15">
-        <v>32.96931550392777</v>
+        <v>24.39869486400977</v>
       </c>
       <c r="I15">
-        <v>22.48921365759124</v>
+        <v>13.54268485663736</v>
       </c>
       <c r="J15">
-        <v>9.948835481953559</v>
+        <v>6.920335775901703</v>
       </c>
       <c r="K15">
-        <v>11.20748734218701</v>
+        <v>15.3301905320095</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.7349083533901</v>
+        <v>16.08887790596314</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.21964473736879</v>
+        <v>16.62092316746195</v>
       </c>
       <c r="C16">
-        <v>6.067227445526163</v>
+        <v>10.03131669049249</v>
       </c>
       <c r="D16">
-        <v>9.489632868492672</v>
+        <v>9.230101573291185</v>
       </c>
       <c r="E16">
-        <v>14.00069265505503</v>
+        <v>12.9878036450346</v>
       </c>
       <c r="F16">
-        <v>32.98939162259283</v>
+        <v>24.11199830167479</v>
       </c>
       <c r="I16">
-        <v>22.55201959834794</v>
+        <v>13.65346555138077</v>
       </c>
       <c r="J16">
-        <v>9.94685338476539</v>
+        <v>6.82798658401951</v>
       </c>
       <c r="K16">
-        <v>11.05200714348507</v>
+        <v>14.87746139611991</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.78384178015045</v>
+        <v>16.06508345681917</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.08510351968687</v>
+        <v>16.28535008551714</v>
       </c>
       <c r="C17">
-        <v>5.975877426722914</v>
+        <v>9.832092205272069</v>
       </c>
       <c r="D17">
-        <v>9.452762420166353</v>
+        <v>9.064781985917977</v>
       </c>
       <c r="E17">
-        <v>13.96152121104678</v>
+        <v>12.7726888639277</v>
       </c>
       <c r="F17">
-        <v>33.00388861992084</v>
+        <v>23.94203012783892</v>
       </c>
       <c r="I17">
-        <v>22.59173288036356</v>
+        <v>13.72557870911373</v>
       </c>
       <c r="J17">
-        <v>9.946054591146424</v>
+        <v>6.771911762238064</v>
       </c>
       <c r="K17">
-        <v>10.95579664484868</v>
+        <v>14.59328850363807</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.81530354679371</v>
+        <v>16.05584618060735</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.00705570513323</v>
+        <v>16.08938175112387</v>
       </c>
       <c r="C18">
-        <v>5.922714400962665</v>
+        <v>9.715811419306398</v>
       </c>
       <c r="D18">
-        <v>9.431635791944375</v>
+        <v>8.968672047770596</v>
       </c>
       <c r="E18">
-        <v>13.93921118410223</v>
+        <v>12.64804673594831</v>
       </c>
       <c r="F18">
-        <v>33.01302772246032</v>
+        <v>23.84642881958343</v>
       </c>
       <c r="I18">
-        <v>22.61500970308268</v>
+        <v>13.76852345292151</v>
       </c>
       <c r="J18">
-        <v>9.945748750179058</v>
+        <v>6.739876633444954</v>
       </c>
       <c r="K18">
-        <v>10.90017303047822</v>
+        <v>14.42746933248174</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.83392886955222</v>
+        <v>16.05244561331225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.98051858394338</v>
+        <v>16.02252149026685</v>
       </c>
       <c r="C19">
-        <v>5.904608924609929</v>
+        <v>9.676149529972495</v>
       </c>
       <c r="D19">
-        <v>9.424497029601071</v>
+        <v>8.935956588660613</v>
       </c>
       <c r="E19">
-        <v>13.93169579080798</v>
+        <v>12.6056906032959</v>
       </c>
       <c r="F19">
-        <v>33.016259534318</v>
+        <v>23.8144295579433</v>
       </c>
       <c r="I19">
-        <v>22.62296548596953</v>
+        <v>13.78331037942083</v>
       </c>
       <c r="J19">
-        <v>9.945671606346028</v>
+        <v>6.729067958638979</v>
       </c>
       <c r="K19">
-        <v>10.88129253383465</v>
+        <v>14.37091834726438</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.84032591946281</v>
+        <v>16.0516172782019</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.09949488225769</v>
+        <v>16.32137803247343</v>
       </c>
       <c r="C20">
-        <v>5.98566634741668</v>
+        <v>9.853474978391453</v>
       </c>
       <c r="D20">
-        <v>9.456679167766675</v>
+        <v>9.082486668374322</v>
       </c>
       <c r="E20">
-        <v>13.96566840445366</v>
+        <v>12.79568335411804</v>
       </c>
       <c r="F20">
-        <v>33.00226249205728</v>
+        <v>23.95989969547291</v>
       </c>
       <c r="I20">
-        <v>22.58746032809999</v>
+        <v>13.71774899667667</v>
       </c>
       <c r="J20">
-        <v>9.946123733168115</v>
+        <v>6.777858615600556</v>
       </c>
       <c r="K20">
-        <v>10.96606843026929</v>
+        <v>14.62378443904128</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.81189958358447</v>
+        <v>16.05663028008737</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.49114172752391</v>
+        <v>17.29026975126901</v>
       </c>
       <c r="C21">
-        <v>6.250502880188065</v>
+        <v>10.42909407594562</v>
       </c>
       <c r="D21">
-        <v>9.565724140072435</v>
+        <v>9.562504229305794</v>
       </c>
       <c r="E21">
-        <v>14.08240298119593</v>
+        <v>13.42294785849102</v>
       </c>
       <c r="F21">
-        <v>32.96480699356675</v>
+        <v>24.47455098637517</v>
       </c>
       <c r="I21">
-        <v>22.47336463462058</v>
+        <v>13.5154170926046</v>
       </c>
       <c r="J21">
-        <v>9.949475932815268</v>
+        <v>6.944353347379276</v>
       </c>
       <c r="K21">
-        <v>11.24735840623863</v>
+        <v>15.44509014277083</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.72272140595794</v>
+        <v>16.09672487418768</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.7406928870684</v>
+        <v>17.89744958294226</v>
       </c>
       <c r="C22">
-        <v>6.417808458406126</v>
+        <v>10.79037618817808</v>
       </c>
       <c r="D22">
-        <v>9.63757968888312</v>
+        <v>9.866876691730841</v>
       </c>
       <c r="E22">
-        <v>14.1605313580374</v>
+        <v>13.82429226761736</v>
       </c>
       <c r="F22">
-        <v>32.94747164076765</v>
+        <v>24.83038418925513</v>
       </c>
       <c r="I22">
-        <v>22.40267427271774</v>
+        <v>13.39753889136966</v>
       </c>
       <c r="J22">
-        <v>9.953027960627027</v>
+        <v>7.055000907631892</v>
       </c>
       <c r="K22">
-        <v>11.42826664389221</v>
+        <v>15.96086213355316</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.66916975431547</v>
+        <v>16.14117473083223</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.60811242429921</v>
+        <v>17.57575564985118</v>
       </c>
       <c r="C23">
-        <v>6.329054291989866</v>
+        <v>10.59891018465</v>
       </c>
       <c r="D23">
-        <v>9.599181325311047</v>
+        <v>9.705292219581974</v>
       </c>
       <c r="E23">
-        <v>14.1186710468187</v>
+        <v>13.61089445348838</v>
       </c>
       <c r="F23">
-        <v>32.95606967884833</v>
+        <v>24.63867638931802</v>
       </c>
       <c r="I23">
-        <v>22.44004793243636</v>
+        <v>13.45907313873932</v>
       </c>
       <c r="J23">
-        <v>9.951007975181845</v>
+        <v>6.995783209684451</v>
       </c>
       <c r="K23">
-        <v>11.33199860085737</v>
+        <v>15.68749971114805</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.69731750783354</v>
+        <v>16.11572280794828</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.09299071637669</v>
+        <v>16.30509927852482</v>
       </c>
       <c r="C24">
-        <v>5.981242781484742</v>
+        <v>9.843813260328451</v>
       </c>
       <c r="D24">
-        <v>9.454908184606973</v>
+        <v>9.074485697282642</v>
       </c>
       <c r="E24">
-        <v>13.96379280231394</v>
+        <v>12.78529056004656</v>
       </c>
       <c r="F24">
-        <v>33.00299515837697</v>
+        <v>23.95181427703304</v>
       </c>
       <c r="I24">
-        <v>22.58939056247445</v>
+        <v>13.72128419523431</v>
       </c>
       <c r="J24">
-        <v>9.94609199617747</v>
+        <v>6.775169409596551</v>
       </c>
       <c r="K24">
-        <v>10.96142552013032</v>
+        <v>14.61000484141848</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.81343684114037</v>
+        <v>16.05626985278534</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.51237233999552</v>
+        <v>14.82136846587867</v>
       </c>
       <c r="C25">
-        <v>5.582541935349647</v>
+        <v>8.964571883155608</v>
       </c>
       <c r="D25">
-        <v>9.302428742950745</v>
+        <v>8.355223898373055</v>
       </c>
       <c r="E25">
-        <v>13.80522453907274</v>
+        <v>11.86026110581454</v>
       </c>
       <c r="F25">
-        <v>33.08421428527517</v>
+        <v>23.293265638321</v>
       </c>
       <c r="I25">
-        <v>22.76710104908947</v>
+        <v>14.0596000989409</v>
       </c>
       <c r="J25">
-        <v>9.946664542727666</v>
+        <v>6.545592509268052</v>
       </c>
       <c r="K25">
-        <v>10.55103660575688</v>
+        <v>13.35712832635144</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.95891737582154</v>
+        <v>16.06453635800069</v>
       </c>
     </row>
   </sheetData>
